--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Buffer\(S,B,C)</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color</t>
   </si>
   <si>
     <t xml:space="preserve">Sx</t>
@@ -174,18 +177,18 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="44"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="44"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -235,7 +238,7 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -253,13 +256,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
@@ -273,13 +269,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -335,35 +324,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,20 +360,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -467,10 +456,10 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="11.52"/>
@@ -522,18 +511,18 @@
       <c r="D3" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,18 +538,18 @@
       <c r="D4" s="6" t="n">
         <v>0.15</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,18 +565,18 @@
       <c r="D5" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>0.28</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,18 +592,18 @@
       <c r="D6" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,43 +619,43 @@
       <c r="D7" s="6" t="n">
         <v>0.35</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="n">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="n">
         <v>0.1</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="6" t="n">
         <v>0.09</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="6" t="n">
         <v>0.11</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="7" t="n">
         <v>0.09</v>
       </c>
       <c r="K8" s="4"/>
@@ -675,25 +664,25 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="n">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="6" t="n">
         <v>0.19</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="7" t="n">
         <v>0.19</v>
       </c>
       <c r="K9" s="4"/>
@@ -702,25 +691,25 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="n">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="6" t="n">
         <v>0.29</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="7" t="n">
         <v>0.31</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="7" t="n">
         <v>0.29</v>
       </c>
       <c r="K10" s="4"/>
@@ -729,25 +718,25 @@
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="n">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="6" t="n">
         <v>0.43</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="6" t="n">
         <v>0.51</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="7" t="n">
         <v>0.39</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
         <v>0.4</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="7" t="n">
         <v>0.43</v>
       </c>
       <c r="K11" s="4"/>
@@ -786,33 +775,33 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="n">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="n">
         <f aca="false">SUM(E8:E11)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <f aca="false">SUM(F8:F11)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="14" t="n">
         <f aca="false">SUM(G8:G11)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="14" t="n">
         <f aca="false">SUM(H8:H11)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="14" t="n">
         <f aca="false">SUM(I8:I11)</f>
         <v>1</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="15" t="n">
         <f aca="false">SUM(J8:J11)</f>
         <v>1</v>
       </c>
@@ -830,49 +819,61 @@
       <c r="B16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="B19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="B20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>31</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Prawdopodobieństwo" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -456,10 +456,10 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="11.52"/>
@@ -844,9 +844,6 @@
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
